--- a/doc/04_DB定義書_B2_0609_ver1.xlsx
+++ b/doc/04_DB定義書_B2_0609_ver1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/shimizu-yotaro-plusdojo2022_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doko6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95DC9DC-0B2B-47FA-9B9B-A10424466F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4FC452-6CBE-43A8-AA85-5789D952CB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="865" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>ユーザマスタ</t>
   </si>
   <si>
-    <t>ユーザテーブル</t>
-  </si>
-  <si>
     <t>Users</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1173,12 +1170,16 @@
     <t>2022/6/</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1634,7 +1635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1960,10 +1961,10 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.5" customWidth="1"/>
@@ -1972,12 +1973,12 @@
     <col min="7" max="7" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2005,19 +2006,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2037,247 +2038,247 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -2287,7 +2288,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -2297,7 +2298,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -2307,7 +2308,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -2317,7 +2318,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -2327,7 +2328,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -2347,7 +2348,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -2357,7 +2358,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -2367,7 +2368,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -2377,7 +2378,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -2387,7 +2388,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -2397,7 +2398,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -2407,7 +2408,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -2417,7 +2418,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -2427,7 +2428,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -2437,7 +2438,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -2447,7 +2448,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -2457,7 +2458,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -2482,7 +2483,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="24.625" bestFit="1" customWidth="1"/>
@@ -2495,26 +2496,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2525,34 +2526,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2563,22 +2564,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -2588,30 +2589,30 @@
         <v>create table Target_understands (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2620,18 +2621,18 @@
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -2639,29 +2640,29 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>target_id char (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="23">
         <v>5</v>
@@ -2669,29 +2670,29 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>item_id char (5),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -2699,29 +2700,29 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>user_id char (5),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -2729,29 +2730,29 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>day char (10),</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -2759,7 +2760,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2768,7 +2769,7 @@
         <v>target_understand int (1)</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3020,9 +3021,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3040,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -3052,26 +3053,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3082,34 +3083,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3120,22 +3121,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -3145,30 +3146,30 @@
         <v>create table Threads (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3177,50 +3178,50 @@
         <v>id INT (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>thread_id char (4+1),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3228,29 +3229,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>thread_bbs VARCHAR (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -3258,7 +3259,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3267,7 +3268,7 @@
         <v>category_bbs VARCHAR (10)</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3555,9 +3556,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3575,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -3587,26 +3588,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3617,34 +3618,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3655,22 +3656,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -3680,30 +3681,30 @@
         <v>create table Comments (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3712,18 +3713,18 @@
         <v>id INT (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -3731,61 +3732,61 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>thread_id INT (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>comment_id INT (5),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -3793,29 +3794,29 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>user_id INT (5),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -3830,18 +3831,18 @@
         <v>content_bbs VARCHAR (200),</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E15" s="3">
         <v>15</v>
@@ -3849,7 +3850,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3858,7 +3859,7 @@
         <v>time_bbs DATETIME (15)</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4110,9 +4111,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4130,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -4142,26 +4143,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4172,34 +4173,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4210,22 +4211,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -4235,30 +4236,30 @@
         <v>create table Charts (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4267,50 +4268,50 @@
         <v>id INT (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>question_id INT (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4318,7 +4319,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4327,7 +4328,7 @@
         <v>content_question VARCHAR (30)</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4633,9 +4634,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4652,19 +4653,19 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -4681,16 +4682,16 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -4702,31 +4703,31 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="18">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -4736,31 +4737,31 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75">
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -4770,15 +4771,15 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75">
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4787,10 +4788,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -4800,15 +4801,15 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="18.75">
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4824,7 +4825,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -4842,9 +4843,9 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="13"/>
@@ -4862,24 +4863,24 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -4892,24 +4893,24 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -4922,24 +4923,24 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -4952,7 +4953,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4970,15 +4971,15 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="13"/>
       <c r="D13" s="9"/>
       <c r="G13" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="13"/>
@@ -4990,33 +4991,33 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -5024,24 +5025,24 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="G15" s="13">
         <v>1</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I15" s="15">
         <v>44835</v>
@@ -5054,24 +5055,24 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="G16" s="13">
         <v>2</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -5082,7 +5083,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5091,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I17" s="15">
         <v>45017</v>
@@ -5104,9 +5105,9 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="13"/>
@@ -5124,22 +5125,22 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="13"/>
@@ -5152,31 +5153,31 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>1</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20" s="13">
         <v>10</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -5185,15 +5186,15 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="13">
         <v>5</v>
@@ -5203,13 +5204,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -5218,15 +5219,15 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" s="13">
         <v>3</v>
@@ -5236,13 +5237,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -5251,9 +5252,9 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5263,13 +5264,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -5279,15 +5280,15 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>101</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D24" s="13">
         <v>10</v>
@@ -5305,15 +5306,15 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>102</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="13">
         <v>3</v>
@@ -5331,9 +5332,9 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5351,7 +5352,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -5369,9 +5370,9 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -5380,7 +5381,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -5391,57 +5392,57 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:16" ht="18.75">
+    <row r="30" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A30" s="13">
         <v>1</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30" s="13" t="b">
         <v>1</v>
@@ -5451,13 +5452,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K30" s="19">
         <v>44562</v>
@@ -5469,18 +5470,18 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:16" ht="18.75">
+    <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" s="13">
         <v>2</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E31" s="13" t="b">
         <v>1</v>
@@ -5490,13 +5491,13 @@
         <v>2</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K31" s="19">
         <v>44563</v>
@@ -5508,18 +5509,18 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:16" ht="18.75">
+    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A32" s="13">
         <v>3</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E32" s="13" t="b">
         <v>0</v>
@@ -5529,13 +5530,13 @@
         <v>3</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K32" s="19">
         <v>44564</v>
@@ -5547,18 +5548,18 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:16" ht="18.75">
+    <row r="33" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A33" s="13">
         <v>4</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E33" s="13" t="b">
         <v>1</v>
@@ -5574,9 +5575,9 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -5594,7 +5595,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -5612,9 +5613,9 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -5632,18 +5633,18 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -5658,18 +5659,18 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
         <v>1</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -5684,18 +5685,18 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
         <v>2</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>251</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -5710,18 +5711,18 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
         <v>3</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -5736,18 +5737,18 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
         <v>4</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="D41" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -5762,7 +5763,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -5780,7 +5781,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -5798,9 +5799,9 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -5818,24 +5819,24 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -5848,21 +5849,21 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
         <v>1</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F46" s="17">
         <v>44718.413194444445</v>
@@ -5878,21 +5879,21 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
         <v>2</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47" s="13">
         <v>2</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F47" s="17">
         <v>44718.454861111109</v>
@@ -5908,15 +5909,15 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
         <v>3</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -5932,15 +5933,15 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
         <v>4</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -5956,7 +5957,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -5974,9 +5975,9 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -5993,15 +5994,15 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="D52" s="9"/>
       <c r="F52" s="9"/>
@@ -6016,15 +6017,15 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>1</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="D53" s="9"/>
       <c r="F53" s="9"/>
@@ -6039,15 +6040,15 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>2</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>273</v>
       </c>
       <c r="D54" s="9"/>
       <c r="F54" s="9"/>
@@ -6062,15 +6063,15 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <v>3</v>
       </c>
       <c r="B55" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="D55" s="9"/>
       <c r="F55" s="9"/>
@@ -6085,15 +6086,15 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="13">
         <v>4</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D56" s="9"/>
       <c r="F56" s="9"/>
@@ -6108,12 +6109,12 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="13">
         <v>5</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="9"/>
@@ -6129,12 +6130,12 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="13">
         <v>6</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="9"/>
@@ -6151,12 +6152,12 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="13">
         <v>7</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="9"/>
@@ -6173,7 +6174,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -6191,7 +6192,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -6224,7 +6225,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -6237,24 +6238,24 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6263,12 +6264,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -6276,9 +6277,9 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
@@ -6286,7 +6287,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6297,22 +6298,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -6322,7 +6323,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -6412,7 +6413,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -6682,9 +6683,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6697,11 +6698,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -6714,26 +6715,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6744,12 +6745,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -6759,19 +6760,19 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6782,22 +6783,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -6807,84 +6808,84 @@
         <v>create table Users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>username varchar (30),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -6892,29 +6893,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>password varchar (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -6922,29 +6923,29 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>mail varchar (100)</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -6959,7 +6960,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -7067,7 +7068,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -7085,7 +7086,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -7103,7 +7104,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -7139,7 +7140,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -7211,7 +7212,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -7229,7 +7230,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -7240,7 +7241,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -7253,11 +7254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE51DD-EB79-4227-9BD2-6F58E73E31D2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -7270,26 +7271,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7300,34 +7301,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7338,22 +7339,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -7363,30 +7364,30 @@
         <v>create table My_certifications (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -7395,18 +7396,18 @@
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E11" s="25">
         <v>5</v>
@@ -7414,29 +7415,29 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id char (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="25">
         <v>5</v>
@@ -7444,48 +7445,48 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>certification_id char (5),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>item_id char (4+1)</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -7773,9 +7774,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -7792,7 +7793,7 @@
       <selection activeCell="G20" sqref="E20:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -7805,26 +7806,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7835,34 +7836,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7873,22 +7874,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -7898,30 +7899,30 @@
         <v>create table Certifications (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -7930,50 +7931,50 @@
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>certification_id char (4+1),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -7981,29 +7982,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>certification varchar (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -8011,7 +8012,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -8020,18 +8021,18 @@
         <v>category varchar (10),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3">
         <v>50</v>
@@ -8046,18 +8047,18 @@
         <v>book_name varchar (50),</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -8072,7 +8073,7 @@
         <v>book_image varchar (30)</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -8324,9 +8325,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -8343,7 +8344,7 @@
       <selection activeCell="C12" sqref="C12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -8356,26 +8357,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8386,34 +8387,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -8424,22 +8425,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -8449,30 +8450,30 @@
         <v>create table Items (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -8481,18 +8482,18 @@
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -8500,61 +8501,61 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>certification_id char (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>item_id char (4+1),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -8562,7 +8563,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -8571,18 +8572,18 @@
         <v>item varchar (30),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="24">
         <v>3</v>
@@ -8590,7 +8591,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="3"/>
@@ -8599,7 +8600,7 @@
         <v>item_page int (3)</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -8671,7 +8672,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -8707,7 +8708,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -8797,7 +8798,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -8833,7 +8834,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -8869,9 +8870,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +8889,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -8901,26 +8902,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8931,34 +8932,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -8969,22 +8970,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -8994,30 +8995,30 @@
         <v>create table Test_days (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -9026,18 +9027,18 @@
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="25">
         <v>5</v>
@@ -9045,29 +9046,29 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>certification_id char (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -9075,7 +9076,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -9084,18 +9085,18 @@
         <v>testdays char (10),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -9110,18 +9111,18 @@
         <v>app_start char (10),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -9136,7 +9137,7 @@
         <v>app_fin char (10)</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -9190,7 +9191,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -9226,7 +9227,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -9316,7 +9317,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -9352,7 +9353,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -9388,7 +9389,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -9406,9 +9407,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -9425,7 +9426,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
@@ -9438,26 +9439,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -9468,34 +9469,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -9506,22 +9507,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -9531,30 +9532,30 @@
         <v>create table Pages (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -9563,18 +9564,18 @@
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -9582,29 +9583,29 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>certification_id char (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -9612,29 +9613,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>item_id char (5),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -9642,7 +9643,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -9651,7 +9652,7 @@
         <v>page varchar (3)</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -9777,7 +9778,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -9813,7 +9814,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -9849,7 +9850,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -9867,7 +9868,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -9903,7 +9904,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -9939,9 +9940,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -9958,7 +9959,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -9971,26 +9972,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -10001,34 +10002,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -10039,22 +10040,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -10064,30 +10065,30 @@
         <v>create table Targets (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -10096,50 +10097,50 @@
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>target_id char (4+1),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -10147,29 +10148,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>item_id char (5),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
@@ -10177,7 +10178,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -10186,7 +10187,7 @@
         <v>target varchar (40)</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -10222,7 +10223,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -10240,7 +10241,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -10258,7 +10259,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -10276,7 +10277,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -10312,7 +10313,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -10420,7 +10421,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -10438,7 +10439,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -10474,9 +10475,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -10493,7 +10494,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
@@ -10506,26 +10507,26 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -10536,34 +10537,34 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -10574,22 +10575,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -10599,50 +10600,50 @@
         <v>create table Item_persents (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>105</v>
-      </c>
       <c r="D11" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="23">
         <v>5</v>
@@ -10650,29 +10651,29 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>certification_id char (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -10680,29 +10681,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_id char (5),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>86</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -10710,29 +10711,29 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_id char (5),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="E14" s="21">
         <v>1</v>
@@ -10740,16 +10741,16 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_percent boolean (1)</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -10763,11 +10764,11 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -10781,11 +10782,11 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -10799,11 +10800,11 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -10817,11 +10818,11 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -10835,11 +10836,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -10853,11 +10854,11 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -10871,11 +10872,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -10889,11 +10890,11 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -10907,11 +10908,11 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -10925,11 +10926,11 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -10943,11 +10944,11 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -10961,11 +10962,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -10979,11 +10980,11 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -10997,11 +10998,11 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -11015,13 +11016,13 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -11031,18 +11032,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11160,13 +11161,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFC2F86-8AED-49F7-AFFC-459940567D87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFC2F86-8AED-49F7-AFFC-459940567D87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>